--- a/doc/外部設計/ホーム画面詳細.xlsx
+++ b/doc/外部設計/ホーム画面詳細.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6224B583-F4D8-4056-918B-4C4112B3D197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B2A3C-3838-4C53-863E-40AC6B64CD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C579409B-6888-4E45-ADDB-6DF366D123E4}"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="19160" windowHeight="9670" xr2:uid="{C579409B-6888-4E45-ADDB-6DF366D123E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カレンダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カレンダー登録画面</t>
     <rPh sb="5" eb="7">
       <t>トウロク</t>
@@ -74,17 +70,6 @@
     <t>カレンダー更新画面</t>
     <rPh sb="5" eb="9">
       <t>コウシンガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終電時間</t>
-    <rPh sb="0" eb="4">
-      <t>シュウデンジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -108,6 +93,39 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終電表示画面</t>
+    <rPh sb="0" eb="2">
+      <t>シュウデン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最寄り駅変更画面</t>
+    <rPh sb="0" eb="2">
+      <t>モヨ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エキヘンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -185,481 +203,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>27298</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>14598</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14597</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907A8AE1-9063-4E89-B398-A1A9EEB6546E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1348098" y="672150"/>
-          <a:ext cx="2628900" cy="3914447"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>116782</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>65691</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>613104</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109484</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="グラフィックス 3" descr="ホーム 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB658CA7-149D-491B-A0AF-EE676EEA7173}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1430575" y="744484"/>
-          <a:ext cx="496322" cy="496322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58391</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>138679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>532817</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="グラフィックス 5" descr="ハンガーガー形のメニュー アイコン 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44698432-796F-451E-B48C-F064486EA508}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3342874" y="817472"/>
-          <a:ext cx="474426" cy="390350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>401436</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>102185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>248161</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80288</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="グラフィックス 7" descr="路面電車 単色塗りつぶし">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC543A04-92C8-466F-B568-5D3BD8D72CFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2372126" y="780978"/>
-          <a:ext cx="503621" cy="430632"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>532816</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>14596</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>116782</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="楕円 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9A883F-D6BA-4989-BBB7-2ECC46A9BA97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1846609" y="1824711"/>
-          <a:ext cx="1554656" cy="1488965"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>02:53:01</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>474426</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>94885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>452529</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>109482</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EDEA9F-E7BE-43C3-9FFF-A79AEC1F0306}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1788219" y="1452471"/>
-          <a:ext cx="635000" cy="240862"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>通知</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>569310</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>43794</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>36494</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>131380</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD65498-44FE-4F61-85FD-E0C8F6541D68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1883103" y="3437760"/>
-          <a:ext cx="1437874" cy="313850"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>位置情報検索</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>569310</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>36495</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>80287</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AD2030-7BF8-43FC-A56B-DEE48356A894}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1883103" y="3882989"/>
-          <a:ext cx="1481667" cy="540114"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>予定がありません</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>11824</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -684,8 +227,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4654380" y="687039"/>
-          <a:ext cx="2628510" cy="3866470"/>
+          <a:off x="4610100" y="688499"/>
+          <a:ext cx="2614886" cy="3874741"/>
           <a:chOff x="4634624" y="678572"/>
           <a:chExt cx="2625689" cy="3914447"/>
         </a:xfrm>
@@ -929,13 +472,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -967,13 +510,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1005,13 +548,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1043,13 +586,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1154,8 +697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4632580" y="5289306"/>
-          <a:ext cx="2634836" cy="3864132"/>
+          <a:off x="4594626" y="5300497"/>
+          <a:ext cx="2614886" cy="3872405"/>
           <a:chOff x="4615647" y="5354217"/>
           <a:chExt cx="2629192" cy="3912110"/>
         </a:xfrm>
@@ -1394,13 +937,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1432,13 +975,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1470,13 +1013,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1508,13 +1051,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -1701,8 +1244,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8158998" y="699885"/>
-          <a:ext cx="2641062" cy="3872309"/>
+          <a:off x="8088442" y="701345"/>
+          <a:ext cx="2615760" cy="3880580"/>
           <a:chOff x="8063043" y="708352"/>
           <a:chExt cx="2629773" cy="3920286"/>
         </a:xfrm>
@@ -1851,13 +1394,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -1949,13 +1492,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -2104,13 +1647,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -2310,13 +1853,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -2349,13 +1892,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2403,13 +1946,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2455,8 +1998,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8137685" y="5287553"/>
-          <a:ext cx="2641061" cy="3872307"/>
+          <a:off x="8067129" y="5298744"/>
+          <a:ext cx="2615759" cy="3880580"/>
           <a:chOff x="8109463" y="5352464"/>
           <a:chExt cx="2629772" cy="3920285"/>
         </a:xfrm>
@@ -2581,13 +2124,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2679,13 +2222,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -2834,13 +2377,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3040,13 +2583,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3093,8 +2636,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11518609" y="5308573"/>
-          <a:ext cx="2641062" cy="3872307"/>
+          <a:off x="11416425" y="5319764"/>
+          <a:ext cx="2615759" cy="3880580"/>
           <a:chOff x="11476276" y="5373484"/>
           <a:chExt cx="2629773" cy="3920285"/>
         </a:xfrm>
@@ -3219,13 +2762,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3317,13 +2860,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3472,13 +3015,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3678,13 +3221,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3790,7 +3333,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3839,8 +3382,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18131495" y="723515"/>
-          <a:ext cx="2635411" cy="3790304"/>
+          <a:off x="17966055" y="724975"/>
+          <a:ext cx="2610108" cy="3798089"/>
           <a:chOff x="1320800" y="0"/>
           <a:chExt cx="2614886" cy="3872405"/>
         </a:xfrm>
@@ -3905,13 +3448,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3943,13 +3486,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -3981,13 +3524,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5296,8 +4839,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="21436061" y="700424"/>
-          <a:ext cx="2635411" cy="3790304"/>
+          <a:off x="21238992" y="701884"/>
+          <a:ext cx="2610109" cy="3798089"/>
           <a:chOff x="1981200" y="0"/>
           <a:chExt cx="2614886" cy="3872405"/>
         </a:xfrm>
@@ -5362,13 +4905,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5400,13 +4943,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -5438,13 +4981,13 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
               </a:ext>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6423,8 +5966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14769201" y="5273708"/>
-          <a:ext cx="2687525" cy="3827214"/>
+          <a:off x="14635389" y="5284899"/>
+          <a:ext cx="2662222" cy="3835487"/>
           <a:chOff x="14741722" y="5307872"/>
           <a:chExt cx="2681583" cy="3852465"/>
         </a:xfrm>
@@ -6514,7 +6057,7 @@
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -6546,7 +6089,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6584,13 +6127,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -7184,8 +6727,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18108403" y="5273708"/>
-          <a:ext cx="2649425" cy="3827214"/>
+          <a:off x="17942963" y="5284899"/>
+          <a:ext cx="2624122" cy="3835487"/>
           <a:chOff x="18073497" y="5307872"/>
           <a:chExt cx="2643483" cy="3852465"/>
         </a:xfrm>
@@ -7275,7 +6818,7 @@
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -7307,7 +6850,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7345,13 +6888,13 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
               <a:extLst>
                 <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                   <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
                 </a:ext>
                 <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
                 </a:ext>
               </a:extLst>
             </a:blip>
@@ -7540,138 +7083,506 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>490347</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>204018</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>27298</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>214950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>166494</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>94523</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14598</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14597</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="フローチャート: 端子 197">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F647DC9-3296-49AE-BD5F-E8682C95765B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CDD641-EF2D-44FE-B6EF-D62551226D70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3138762" y="1574689"/>
-          <a:ext cx="338250" cy="118950"/>
+          <a:off x="1341091" y="667479"/>
+          <a:ext cx="2614886" cy="3872405"/>
+          <a:chOff x="1346144" y="666777"/>
+          <a:chExt cx="2624992" cy="3866089"/>
         </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>51616</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>147266</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>294135</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>144969</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="楕円 198">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDB9F75-54F4-4E9B-AA92-EBC300B99CC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362134" y="1517937"/>
-          <a:ext cx="242519" cy="226148"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{907A8AE1-9063-4E89-B398-A1A9EEB6546E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1346144" y="666777"/>
+            <a:ext cx="2624992" cy="3866089"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="グラフィックス 3" descr="ホーム 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB658CA7-149D-491B-A0AF-EE676EEA7173}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1435628" y="743431"/>
+            <a:ext cx="496322" cy="495620"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="グラフィックス 5" descr="ハンガーガー形のメニュー アイコン 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44698432-796F-451E-B48C-F064486EA508}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3355506" y="816419"/>
+            <a:ext cx="474426" cy="389648"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="グラフィックス 7" descr="路面電車 単色塗りつぶし">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC543A04-92C8-466F-B568-5D3BD8D72CFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2379705" y="779925"/>
+            <a:ext cx="506148" cy="429930"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="楕円 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9A883F-D6BA-4989-BBB7-2ECC46A9BA97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1851662" y="1821904"/>
+            <a:ext cx="1562235" cy="1486859"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>02:53:01</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EDEA9F-E7BE-43C3-9FFF-A79AEC1F0306}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1793272" y="1450366"/>
+            <a:ext cx="637526" cy="240510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>通知</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD65498-44FE-4F61-85FD-E0C8F6541D68}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1888156" y="3432496"/>
+            <a:ext cx="1445453" cy="313499"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>位置情報検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AD2030-7BF8-43FC-A56B-DEE48356A894}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1888156" y="3877024"/>
+            <a:ext cx="1489246" cy="539412"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>予定がありません</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="フローチャート: 端子 197">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F647DC9-3296-49AE-BD5F-E8682C95765B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3128039" y="1559499"/>
+            <a:ext cx="335570" cy="116418"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartTerminator">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="90000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="楕円 198">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDB9F75-54F4-4E9B-AA92-EBC300B99CC8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3348731" y="1502747"/>
+            <a:ext cx="242519" cy="223616"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8173,6 +8084,777 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514322</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>506778</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130363</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="グループ化 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE2BC665-22A6-4C07-B0B4-144E7100A35A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1171219" y="5308882"/>
+          <a:ext cx="2620042" cy="3872056"/>
+          <a:chOff x="1171219" y="5308882"/>
+          <a:chExt cx="2620042" cy="3872056"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="173" name="グループ化 172">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F38C84-B49E-4867-B89D-1644DCC40438}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1171219" y="5308882"/>
+            <a:ext cx="2614886" cy="3872056"/>
+            <a:chOff x="1346144" y="666777"/>
+            <a:chExt cx="2624992" cy="3866089"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="174" name="正方形/長方形 173">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC3ED86-AD2F-403F-BEE3-1851B7A2D6ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1346144" y="666777"/>
+              <a:ext cx="2624992" cy="3866089"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="175" name="グラフィックス 174" descr="ホーム 単色塗りつぶし">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE83B3E-B436-4C84-948C-525D72CB6397}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1435628" y="743431"/>
+              <a:ext cx="496322" cy="495620"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="177" name="グラフィックス 176" descr="路面電車 単色塗りつぶし">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB76CAE-66D2-4AF2-B021-C273712D3D5F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2379705" y="779925"/>
+              <a:ext cx="506148" cy="429930"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="178" name="楕円 177">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA7E4B7-ECF5-4C6B-A0B0-B79469F286F8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1851662" y="1821904"/>
+              <a:ext cx="1562235" cy="1486859"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+                <a:t>02:53:01</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="179" name="テキスト ボックス 178">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EC660C-900F-48F1-A0AA-7927B7F07971}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1793272" y="1450366"/>
+              <a:ext cx="637526" cy="240510"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="lt1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>通知</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="180" name="四角形: 角を丸くする 179">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05863FB3-5134-484C-A206-82C37CA9E8EA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1888156" y="3432496"/>
+              <a:ext cx="1445453" cy="313499"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>位置情報検索</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="181" name="正方形/長方形 180">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3226D6BD-3874-4ACA-9AF5-3A5CF7952039}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1888156" y="3877024"/>
+              <a:ext cx="1489246" cy="539412"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>予定がありません</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="182" name="フローチャート: 端子 181">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8388B48A-4292-4EF0-AAFF-D499D6F9C501}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3128039" y="1559499"/>
+              <a:ext cx="335570" cy="116418"/>
+            </a:xfrm>
+            <a:prstGeom prst="flowChartTerminator">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="183" name="楕円 182">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8457E0F-2D0E-4415-AF22-55B5E42F80E2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3348731" y="1502747"/>
+              <a:ext cx="242519" cy="223616"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="176" name="グラフィックス 175" descr="ハンガーガー形のメニュー アイコン 単色塗りつぶし">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640A93BD-D91D-4F52-8E22-40DB54E8DC29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3428776" y="804207"/>
+              <a:ext cx="474426" cy="389648"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="グループ化 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5BB380-6329-4765-B601-8312E7DAB549}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1625363" y="5325951"/>
+            <a:ext cx="2165898" cy="3155736"/>
+            <a:chOff x="1625363" y="5325951"/>
+            <a:chExt cx="2165898" cy="3155736"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="185" name="正方形/長方形 184">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFC522AB-0DE6-467A-9CD8-D2CF56FC8713}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3042533" y="5325951"/>
+              <a:ext cx="748728" cy="1663470"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="184" name="グラフィックス 183" descr="ハンガーガー形のメニュー アイコン 単色塗りつぶし">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F8685DF-DA12-4B64-B5B9-6A40EEC88229}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3173630" y="5388257"/>
+              <a:ext cx="471900" cy="390350"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="正方形/長方形 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9503320E-D553-4F29-B832-9365B6CC1B28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1625363" y="5858099"/>
+              <a:ext cx="2152846" cy="2623588"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="186" name="正方形/長方形 185">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777073C7-A9B2-4F2B-9C1A-E437EF6940F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1994869" y="6078015"/>
+              <a:ext cx="1778076" cy="1443661"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・最寄り駅変更</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>・カレンダー</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8475,8 +9157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D328DD-E91D-4E74-9A7D-0B52F7D4E8D8}">
   <dimension ref="C3:AG42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="AK13" sqref="AK13"/>
+    <sheetView tabSelected="1" topLeftCell="L19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8495,18 +9177,18 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AG3" t="s">
         <v>4</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.55000000000000004">
@@ -8520,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="s">
         <v>7</v>
@@ -8528,7 +9210,7 @@
     </row>
     <row r="42" spans="23:23" x14ac:dyDescent="0.55000000000000004">
       <c r="W42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
